--- a/Data/OrderClassificationCheck.xlsx
+++ b/Data/OrderClassificationCheck.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGit\ML\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F124BDFE-1101-4E0F-8389-08834BFF5A61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C8C63F-EFD2-4D5C-8E0C-58FCDF57DFD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4195,7 +4195,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
